--- a/Ivy Asset Allocation.xlsx
+++ b/Ivy Asset Allocation.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24821"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="106" documentId="11_20206B3795C7A0836B02CE998F0D84DA4D19828D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E24C41B-D387-4533-9367-DDB868171E8C}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanap\Dropbox\ak2424\KD\1. SRP\r_test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72043CF9-7B42-4489-B353-70B5DDC6049A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28155" yWindow="2085" windowWidth="17055" windowHeight="12495" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ivy10" sheetId="2" r:id="rId1"/>
     <sheet name="yale" sheetId="3" r:id="rId2"/>
     <sheet name="harvard" sheetId="4" r:id="rId3"/>
+    <sheet name="test" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
   <si>
     <t>Portfolio Components</t>
   </si>
@@ -232,18 +238,112 @@
   </si>
   <si>
     <t>3-month LIBOR</t>
+  </si>
+  <si>
+    <t>BTC+ETH</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Subperoid :  2020/01 ~ 2021/12 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">First Subperoid :  2017/11 ~ 2019/12 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Entire Peroid :  2017/11 ~ 2021/12 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pr(&gt;F)</t>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>F-test</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step-Down test</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HK test</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -255,7 +355,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -274,16 +374,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{8BB5E9C3-BA4D-4D90-8138-9B6D803890E4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -601,14 +744,14 @@
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -636,7 +779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -650,7 +793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -664,7 +807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -678,7 +821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -692,7 +835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -706,7 +849,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -720,7 +863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -734,7 +877,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -748,7 +891,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -763,6 +906,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -775,52 +919,53 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="81.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="81.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -829,17 +974,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BD1AE2-1FF3-47E4-8E9B-1B62916BD97B}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -850,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -861,7 +1006,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -872,7 +1017,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -883,7 +1028,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -894,7 +1039,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -905,7 +1050,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -916,7 +1061,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -927,7 +1072,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -938,7 +1083,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -949,7 +1094,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -960,7 +1105,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -971,7 +1116,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -983,6 +1128,424 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8998B0-FB4D-4473-B58E-944F9A0C2E94}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.69921875" style="2" customWidth="1"/>
+    <col min="2" max="4" width="13.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.19921875" style="3" customWidth="1"/>
+    <col min="6" max="9" width="13.19921875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="10"/>
+      <c r="B3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1.6385E-3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2.1889919999999998</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.654244</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.19188749999999999</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1.1918759999999999</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.275279</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2.1161080000000001</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.14614679999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="9">
+        <v>9.0530000000000005E-4</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2.4292769999999999</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1.1105879999999999</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.32987050000000001</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.2454102</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.62046109999999999</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1.9776229999999999</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.16002739999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2.5438000000000001E-3</v>
+      </c>
+      <c r="C6" s="9">
+        <v>4.6182689999999997</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2.5143409999999999</v>
+      </c>
+      <c r="E6" s="9">
+        <v>8.1553100000000003E-2</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.66506489999999996</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.41501929999999998</v>
+      </c>
+      <c r="H6" s="9">
+        <v>4.3654359999999999</v>
+      </c>
+      <c r="I6" s="9">
+        <v>3.6988899999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="9">
+        <v>-2.5539999999999997E-4</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1.3973990000000001</v>
+      </c>
+      <c r="D9" s="9">
+        <v>3.77474E-2</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.96295949999999997</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1.33451E-2</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.90808949999999999</v>
+      </c>
+      <c r="H9" s="9">
+        <v>6.2301200000000001E-2</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.80302130000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="9">
+        <v>-2.3574999999999998E-3</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1.103661</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.40805649999999999</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.66521439999999998</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.81589339999999999</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.36692049999999998</v>
+      </c>
+      <c r="H10" s="9">
+        <v>2.197E-4</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.98818039999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="9">
+        <v>-2.6128000000000002E-3</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2.5010599999999998</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.26879019999999998</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.76443989999999995</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.34523910000000002</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.55714799999999998</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.19265189999999999</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.66095210000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="7"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="6">
+        <v>3.6178E-3</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2.670385</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2.9933010000000002</v>
+      </c>
+      <c r="E14" s="6">
+        <v>5.1283599999999999E-2</v>
+      </c>
+      <c r="F14" s="6">
+        <v>3.2513809999999999</v>
+      </c>
+      <c r="G14" s="6">
+        <v>7.2140999999999997E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2.7194400000000001</v>
+      </c>
+      <c r="I14" s="6">
+        <v>9.9942199999999995E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="6">
+        <v>4.3264999999999996E-3</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3.8032550000000001</v>
+      </c>
+      <c r="D15" s="6">
+        <v>3.7898649999999998</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.3441900000000002E-2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2.8860749999999999</v>
+      </c>
+      <c r="G15" s="6">
+        <v>9.0151999999999996E-2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>4.6709480000000001</v>
+      </c>
+      <c r="I15" s="6">
+        <v>3.1288099999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="6">
+        <v>7.9442999999999996E-3</v>
+      </c>
+      <c r="C16" s="6">
+        <v>6.4736399999999996</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4.7455340000000001</v>
+      </c>
+      <c r="E16" s="6">
+        <v>9.2025000000000006E-3</v>
+      </c>
+      <c r="F16" s="6">
+        <v>3.3489949999999999</v>
+      </c>
+      <c r="G16" s="6">
+        <v>6.8015099999999995E-2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>6.1051130000000002</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1.3908E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Ivy Asset Allocation.xlsx
+++ b/Ivy Asset Allocation.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanap\Dropbox\ak2424\KD\1. SRP\r_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanap\Dropbox\ak2424\KD\1. SRP\r_test_0213\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72043CF9-7B42-4489-B353-70B5DDC6049A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC8AE5F-FA5D-4730-900A-5DE956494B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28155" yWindow="2085" windowWidth="17055" windowHeight="12495" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="135" windowWidth="30120" windowHeight="16665" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ivy10" sheetId="2" r:id="rId1"/>
     <sheet name="yale" sheetId="3" r:id="rId2"/>
     <sheet name="harvard" sheetId="4" r:id="rId3"/>
     <sheet name="test" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="99">
   <si>
     <t>Portfolio Components</t>
   </si>
@@ -250,56 +252,171 @@
   </si>
   <si>
     <t xml:space="preserve">Second Subperoid :  2020/01 ~ 2021/12 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">First Subperoid :  2017/11 ~ 2019/12 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Entire Peroid :  2017/11 ~ 2021/12 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Pr(&gt;F)</t>
   </si>
   <si>
-    <t>F2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>F-test</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>beta</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>alpha</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Step-Down test</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>HK test</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>HK_F</t>
+  </si>
+  <si>
+    <t>HK_Pr</t>
+  </si>
+  <si>
+    <t>st1_F</t>
+  </si>
+  <si>
+    <t>st1_Pr</t>
+  </si>
+  <si>
+    <t>st2_F</t>
+  </si>
+  <si>
+    <t>st2_Pr</t>
+  </si>
+  <si>
+    <t>lm_model</t>
+  </si>
+  <si>
+    <t>lm_data</t>
+  </si>
+  <si>
+    <t>BTC ~ (SPY + TLT + GLD)</t>
+  </si>
+  <si>
+    <t>rets2</t>
+  </si>
+  <si>
+    <t>ETH ~ (SPY + TLT + GLD)</t>
+  </si>
+  <si>
+    <t>BTC + ETH ~ (SPY + TLT + GLD)</t>
+  </si>
+  <si>
+    <t>rets2[“/2019”]</t>
+  </si>
+  <si>
+    <t>rets2[“2020/”]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> F</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.00000"/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,36 +440,74 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -390,45 +545,142 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{8BB5E9C3-BA4D-4D90-8138-9B6D803890E4}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1135,417 +1387,1773 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8998B0-FB4D-4473-B58E-944F9A0C2E94}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.69921875" style="2" customWidth="1"/>
-    <col min="2" max="4" width="13.19921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.19921875" style="3" customWidth="1"/>
-    <col min="6" max="9" width="13.19921875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="7.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="7.8984375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="7.09765625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.8984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.59765625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.09765625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.8984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.59765625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.796875" style="3"/>
+    <col min="12" max="13" width="8.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="8.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8" t="s">
+    <row r="1" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="L1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>74</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>74</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="10"/>
-      <c r="B3" s="8" t="s">
+      <c r="L2" s="5">
+        <v>1.1604E-3</v>
+      </c>
+      <c r="M2" s="5">
+        <v>1.4021017</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1.7481153</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.174762</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.65774690000000002</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.41759619999999997</v>
+      </c>
+      <c r="R2" s="5">
+        <v>2.8396895</v>
+      </c>
+      <c r="S2" s="6">
+        <v>9.2349100000000003E-2</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="12"/>
+      <c r="B3" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="L3" s="5">
+        <v>6.757E-4</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1.8885424</v>
+      </c>
+      <c r="N3" s="5">
+        <v>4.1897884999999997</v>
+      </c>
+      <c r="O3" s="5">
+        <v>1.5481200000000001E-2</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.14015639999999999</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0.70822410000000002</v>
+      </c>
+      <c r="R3" s="5">
+        <v>8.2482199000000005</v>
+      </c>
+      <c r="S3" s="6">
+        <v>4.1862000000000002E-3</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="9">
-        <v>1.6385E-3</v>
-      </c>
-      <c r="C4" s="9">
-        <v>2.1889919999999998</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1.654244</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0.19188749999999999</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1.1918759999999999</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.275279</v>
-      </c>
-      <c r="H4" s="9">
-        <v>2.1161080000000001</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0.14614679999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="13">
+        <v>1.1604E-3</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1.4021017</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1.7481153</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.174762</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.65774690000000002</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.41759619999999997</v>
+      </c>
+      <c r="H4" s="13">
+        <v>2.8396895</v>
+      </c>
+      <c r="I4" s="13">
+        <v>9.2349100000000003E-2</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1.8361E-3</v>
+      </c>
+      <c r="M4" s="5">
+        <v>3.2906441000000002</v>
+      </c>
+      <c r="N4" s="5">
+        <v>9.5054569999999998</v>
+      </c>
+      <c r="O4" s="5">
+        <v>8.3100000000000001E-5</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0.3522689</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0.55299830000000005</v>
+      </c>
+      <c r="R4" s="5">
+        <v>18.673652000000001</v>
+      </c>
+      <c r="S4" s="6">
+        <v>1.7399999999999999E-5</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="9">
-        <v>9.0530000000000005E-4</v>
-      </c>
-      <c r="C5" s="9">
-        <v>2.4292769999999999</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1.1105879999999999</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0.32987050000000001</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0.2454102</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0.62046109999999999</v>
-      </c>
-      <c r="H5" s="9">
-        <v>1.9776229999999999</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0.16002739999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
+      <c r="B5" s="13">
+        <v>6.757E-4</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1.8885424</v>
+      </c>
+      <c r="D5" s="13">
+        <v>4.1897884999999997</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1.5481200000000001E-2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.14015639999999999</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.70822410000000002</v>
+      </c>
+      <c r="H5" s="13">
+        <v>8.2482199000000005</v>
+      </c>
+      <c r="I5" s="20">
+        <v>4.1862000000000002E-3</v>
+      </c>
+      <c r="L5" s="5">
+        <v>-8.1999999999999998E-4</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.65957790000000005</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.35345320000000002</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.7024859</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.15626789999999999</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.69283450000000002</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.55184169999999999</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0.4580168</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="9">
-        <v>2.5438000000000001E-3</v>
-      </c>
-      <c r="C6" s="9">
-        <v>4.6182689999999997</v>
-      </c>
-      <c r="D6" s="9">
-        <v>2.5143409999999999</v>
-      </c>
-      <c r="E6" s="9">
-        <v>8.1553100000000003E-2</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.66506489999999996</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0.41501929999999998</v>
-      </c>
-      <c r="H6" s="9">
-        <v>4.3654359999999999</v>
-      </c>
-      <c r="I6" s="9">
-        <v>3.6988899999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
+      <c r="B6" s="14">
+        <v>1.8361E-3</v>
+      </c>
+      <c r="C6" s="14">
+        <v>3.2906441000000002</v>
+      </c>
+      <c r="D6" s="14">
+        <v>9.5054569999999998</v>
+      </c>
+      <c r="E6" s="21">
+        <v>8.3100000000000001E-5</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.3522689</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0.55299830000000005</v>
+      </c>
+      <c r="H6" s="14">
+        <v>18.673652000000001</v>
+      </c>
+      <c r="I6" s="21">
+        <v>1.7399999999999999E-5</v>
+      </c>
+      <c r="L6" s="5">
+        <v>-2.7637999999999999E-3</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1.0127613</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.56451890000000005</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.56910240000000001</v>
+      </c>
+      <c r="P6" s="5">
+        <v>1.1157352</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0.29149930000000002</v>
+      </c>
+      <c r="R6" s="5">
+        <v>1.3298600000000001E-2</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0.9082517</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="9.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="L7" s="5">
+        <v>-3.5837999999999998E-3</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1.6723391999999999</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.45814070000000001</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.63280199999999998</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.63734659999999999</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0.42516419999999999</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.27919640000000001</v>
+      </c>
+      <c r="S7" s="6">
+        <v>0.59753129999999999</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="12"/>
+      <c r="B8" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="7" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="L8" s="5">
+        <v>3.3000999999999998E-3</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1.6132342</v>
+      </c>
+      <c r="N8" s="5">
+        <v>3.9128607999999998</v>
+      </c>
+      <c r="O8" s="5">
+        <v>2.0724800000000002E-2</v>
+      </c>
+      <c r="P8" s="5">
+        <v>2.8168590999999998</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>9.4031600000000007E-2</v>
+      </c>
+      <c r="R8" s="5">
+        <v>4.9870815999999998</v>
+      </c>
+      <c r="S8" s="6">
+        <v>2.6068399999999999E-2</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="9">
-        <v>-2.5539999999999997E-4</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1.3973990000000001</v>
-      </c>
-      <c r="D9" s="9">
-        <v>3.77474E-2</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0.96295949999999997</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1.33451E-2</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0.90808949999999999</v>
-      </c>
-      <c r="H9" s="9">
-        <v>6.2301200000000001E-2</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0.80302130000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
+      <c r="B9" s="13">
+        <v>-8.1999999999999998E-4</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.65957790000000005</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.35345320000000002</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.7024859</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.15626789999999999</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.69283450000000002</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.55184169999999999</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0.4580168</v>
+      </c>
+      <c r="L9" s="5">
+        <v>4.2120999999999999E-3</v>
+      </c>
+      <c r="M9" s="5">
+        <v>2.1777869999999999</v>
+      </c>
+      <c r="N9" s="5">
+        <v>7.0444157000000001</v>
+      </c>
+      <c r="O9" s="5">
+        <v>9.8050000000000003E-4</v>
+      </c>
+      <c r="P9" s="5">
+        <v>2.8632471000000002</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>9.1374999999999998E-2</v>
+      </c>
+      <c r="R9" s="5">
+        <v>11.175529600000001</v>
+      </c>
+      <c r="S9" s="6">
+        <v>9.0390000000000002E-4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="9">
-        <v>-2.3574999999999998E-3</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1.103661</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0.40805649999999999</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0.66521439999999998</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0.81589339999999999</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0.36692049999999998</v>
-      </c>
-      <c r="H10" s="9">
-        <v>2.197E-4</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0.98818039999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
+      <c r="B10" s="13">
+        <v>-2.7637999999999999E-3</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1.0127613</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.56451890000000005</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.56910240000000001</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1.1157352</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.29149930000000002</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1.3298600000000001E-2</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.9082517</v>
+      </c>
+      <c r="L10" s="5">
+        <v>7.5120999999999999E-3</v>
+      </c>
+      <c r="M10" s="5">
+        <v>3.7910211999999999</v>
+      </c>
+      <c r="N10" s="5">
+        <v>12.2043436</v>
+      </c>
+      <c r="O10" s="5">
+        <v>7.0999999999999998E-6</v>
+      </c>
+      <c r="P10" s="5">
+        <v>3.1169209000000002</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>7.8218399999999993E-2</v>
+      </c>
+      <c r="R10" s="5">
+        <v>21.183966399999999</v>
+      </c>
+      <c r="S10" s="6">
+        <v>5.4999999999999999E-6</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="9">
-        <v>-2.6128000000000002E-3</v>
-      </c>
-      <c r="C11" s="9">
-        <v>2.5010599999999998</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0.26879019999999998</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0.76443989999999995</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.34523910000000002</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0.55714799999999998</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0.19265189999999999</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0.66095210000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
+      <c r="B11" s="14">
+        <v>-3.5837999999999998E-3</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1.6723391999999999</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.45814070000000001</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.63280199999999998</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0.63734659999999999</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0.42516419999999999</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0.27919640000000001</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0.59753129999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="8.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="9"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="12"/>
+      <c r="B13" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="7" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="6">
-        <v>3.6178E-3</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2.670385</v>
-      </c>
-      <c r="D14" s="6">
-        <v>2.9933010000000002</v>
-      </c>
-      <c r="E14" s="6">
-        <v>5.1283599999999999E-2</v>
-      </c>
-      <c r="F14" s="6">
-        <v>3.2513809999999999</v>
-      </c>
-      <c r="G14" s="6">
-        <v>7.2140999999999997E-2</v>
-      </c>
-      <c r="H14" s="6">
-        <v>2.7194400000000001</v>
-      </c>
-      <c r="I14" s="6">
-        <v>9.9942199999999995E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="7" t="s">
+      <c r="B14" s="13">
+        <v>3.3000999999999998E-3</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1.6132342</v>
+      </c>
+      <c r="D14" s="13">
+        <v>3.9128607999999998</v>
+      </c>
+      <c r="E14" s="20">
+        <v>2.0724800000000002E-2</v>
+      </c>
+      <c r="F14" s="13">
+        <v>2.8168590999999998</v>
+      </c>
+      <c r="G14" s="13">
+        <v>9.4031600000000007E-2</v>
+      </c>
+      <c r="H14" s="13">
+        <v>4.9870815999999998</v>
+      </c>
+      <c r="I14" s="20">
+        <v>2.6068399999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="6">
-        <v>4.3264999999999996E-3</v>
-      </c>
-      <c r="C15" s="6">
-        <v>3.8032550000000001</v>
-      </c>
-      <c r="D15" s="6">
-        <v>3.7898649999999998</v>
-      </c>
-      <c r="E15" s="6">
-        <v>2.3441900000000002E-2</v>
-      </c>
-      <c r="F15" s="6">
-        <v>2.8860749999999999</v>
-      </c>
-      <c r="G15" s="6">
-        <v>9.0151999999999996E-2</v>
-      </c>
-      <c r="H15" s="6">
-        <v>4.6709480000000001</v>
-      </c>
-      <c r="I15" s="6">
-        <v>3.1288099999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
+      <c r="B15" s="13">
+        <v>4.2120999999999999E-3</v>
+      </c>
+      <c r="C15" s="13">
+        <v>2.1777869999999999</v>
+      </c>
+      <c r="D15" s="13">
+        <v>7.0444157000000001</v>
+      </c>
+      <c r="E15" s="20">
+        <v>9.8050000000000003E-4</v>
+      </c>
+      <c r="F15" s="13">
+        <v>2.8632471000000002</v>
+      </c>
+      <c r="G15" s="13">
+        <v>9.1374999999999998E-2</v>
+      </c>
+      <c r="H15" s="13">
+        <v>11.175529600000001</v>
+      </c>
+      <c r="I15" s="20">
+        <v>9.0390000000000002E-4</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="6">
-        <v>7.9442999999999996E-3</v>
-      </c>
-      <c r="C16" s="6">
-        <v>6.4736399999999996</v>
-      </c>
-      <c r="D16" s="6">
-        <v>4.7455340000000001</v>
-      </c>
-      <c r="E16" s="6">
-        <v>9.2025000000000006E-3</v>
-      </c>
-      <c r="F16" s="6">
-        <v>3.3489949999999999</v>
-      </c>
-      <c r="G16" s="6">
-        <v>6.8015099999999995E-2</v>
-      </c>
-      <c r="H16" s="6">
-        <v>6.1051130000000002</v>
-      </c>
-      <c r="I16" s="6">
-        <v>1.3908E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
+      <c r="B16" s="14">
+        <v>7.5120999999999999E-3</v>
+      </c>
+      <c r="C16" s="14">
+        <v>3.7910211999999999</v>
+      </c>
+      <c r="D16" s="14">
+        <v>12.2043436</v>
+      </c>
+      <c r="E16" s="21">
+        <v>7.0999999999999998E-6</v>
+      </c>
+      <c r="F16" s="14">
+        <v>3.1169209000000002</v>
+      </c>
+      <c r="G16" s="14">
+        <v>7.8218399999999993E-2</v>
+      </c>
+      <c r="H16" s="14">
+        <v>21.183966399999999</v>
+      </c>
+      <c r="I16" s="21">
+        <v>5.4999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="12"/>
+      <c r="B21" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="L21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="13">
+        <v>1.1604E-3</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1.4021017</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1.0449027</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0.35220259999999998</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0.58213349999999997</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0.44570080000000001</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0.77001629999999999</v>
+      </c>
+      <c r="I22" s="13">
+        <v>0.38047350000000002</v>
+      </c>
+      <c r="L22" s="8">
+        <v>1.1604E-3</v>
+      </c>
+      <c r="M22" s="8">
+        <v>1.4021017</v>
+      </c>
+      <c r="N22" s="8">
+        <v>1.0449027</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0.35220259999999998</v>
+      </c>
+      <c r="P22" s="8">
+        <v>0.58213349999999997</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0.44570080000000001</v>
+      </c>
+      <c r="R22" s="8">
+        <v>0.77001629999999999</v>
+      </c>
+      <c r="S22" s="8">
+        <v>0.38047350000000002</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="13">
+        <v>6.757E-4</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1.8885424</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1.7300711</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0.17793030000000001</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0.12697749999999999</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0.72168010000000005</v>
+      </c>
+      <c r="H23" s="13">
+        <v>2.6809150000000002</v>
+      </c>
+      <c r="I23" s="13">
+        <v>0.1019477</v>
+      </c>
+      <c r="L23" s="8">
+        <v>6.757E-4</v>
+      </c>
+      <c r="M23" s="8">
+        <v>1.8885424</v>
+      </c>
+      <c r="N23" s="8">
+        <v>1.7300711</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0.17793030000000001</v>
+      </c>
+      <c r="P23" s="8">
+        <v>0.12697749999999999</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>0.72168010000000005</v>
+      </c>
+      <c r="R23" s="8">
+        <v>2.6809150000000002</v>
+      </c>
+      <c r="S23" s="8">
+        <v>0.1019477</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="14">
+        <v>1.8361E-3</v>
+      </c>
+      <c r="C24" s="14">
+        <v>3.2906441000000002</v>
+      </c>
+      <c r="D24" s="14">
+        <v>3.6363401999999998</v>
+      </c>
+      <c r="E24" s="21">
+        <v>2.6782299999999998E-2</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0.31290210000000002</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0.57606040000000003</v>
+      </c>
+      <c r="H24" s="14">
+        <v>5.2474170999999998</v>
+      </c>
+      <c r="I24" s="21">
+        <v>2.2236700000000002E-2</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1.8361E-3</v>
+      </c>
+      <c r="M24" s="8">
+        <v>3.2906441000000002</v>
+      </c>
+      <c r="N24" s="8">
+        <v>3.6363401999999998</v>
+      </c>
+      <c r="O24" s="8">
+        <v>2.6782299999999998E-2</v>
+      </c>
+      <c r="P24" s="8">
+        <v>0.31290210000000002</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>0.57606040000000003</v>
+      </c>
+      <c r="R24" s="8">
+        <v>5.2474170999999998</v>
+      </c>
+      <c r="S24" s="8">
+        <v>2.2236700000000002E-2</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="9.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="9"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="L25" s="8">
+        <v>-8.1999999999999998E-4</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0.65957790000000005</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0.38107980000000002</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0.68338010000000005</v>
+      </c>
+      <c r="P25" s="8">
+        <v>0.1506671</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>0.69811259999999997</v>
+      </c>
+      <c r="R25" s="8">
+        <v>0.55359709999999995</v>
+      </c>
+      <c r="S25" s="8">
+        <v>0.45730310000000002</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="12"/>
+      <c r="B26" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="L26" s="8">
+        <v>-2.7637999999999999E-3</v>
+      </c>
+      <c r="M26" s="8">
+        <v>1.0127613</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0.55300769999999999</v>
+      </c>
+      <c r="O26" s="8">
+        <v>0.57567219999999997</v>
+      </c>
+      <c r="P26" s="8">
+        <v>1.0709803</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>0.30137199999999997</v>
+      </c>
+      <c r="R26" s="8">
+        <v>1.2728099999999999E-2</v>
+      </c>
+      <c r="S26" s="8">
+        <v>0.91023259999999995</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="13">
+        <v>-8.1999999999999998E-4</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0.65957790000000005</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0.38107980000000002</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0.68338010000000005</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0.1506671</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0.69811259999999997</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0.55359709999999995</v>
+      </c>
+      <c r="I27" s="13">
+        <v>0.45730310000000002</v>
+      </c>
+      <c r="L27" s="8">
+        <v>-3.5837999999999998E-3</v>
+      </c>
+      <c r="M27" s="8">
+        <v>1.6723391999999999</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0.4124198</v>
+      </c>
+      <c r="O27" s="8">
+        <v>0.66233770000000003</v>
+      </c>
+      <c r="P27" s="8">
+        <v>0.6123149</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>0.43439729999999999</v>
+      </c>
+      <c r="R27" s="8">
+        <v>0.27436490000000002</v>
+      </c>
+      <c r="S27" s="8">
+        <v>0.60071850000000004</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="13">
+        <v>-2.7637999999999999E-3</v>
+      </c>
+      <c r="C28" s="13">
+        <v>1.0127613</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0.55300769999999999</v>
+      </c>
+      <c r="E28" s="13">
+        <v>0.57567219999999997</v>
+      </c>
+      <c r="F28" s="13">
+        <v>1.0709803</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0.30137199999999997</v>
+      </c>
+      <c r="H28" s="13">
+        <v>1.2728099999999999E-2</v>
+      </c>
+      <c r="I28" s="13">
+        <v>0.91023259999999995</v>
+      </c>
+      <c r="L28" s="8">
+        <v>3.3000999999999998E-3</v>
+      </c>
+      <c r="M28" s="8">
+        <v>1.6132342</v>
+      </c>
+      <c r="N28" s="8">
+        <v>2.9302752999999999</v>
+      </c>
+      <c r="O28" s="8">
+        <v>5.4487800000000003E-2</v>
+      </c>
+      <c r="P28" s="8">
+        <v>2.4169236000000001</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>0.1207927</v>
+      </c>
+      <c r="R28" s="8">
+        <v>1.0805785999999999</v>
+      </c>
+      <c r="S28" s="8">
+        <v>0.29917189999999999</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="14">
+        <v>-3.5837999999999998E-3</v>
+      </c>
+      <c r="C29" s="14">
+        <v>1.6723391999999999</v>
+      </c>
+      <c r="D29" s="14">
+        <v>0.4124198</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0.66233770000000003</v>
+      </c>
+      <c r="F29" s="14">
+        <v>0.6123149</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0.43439729999999999</v>
+      </c>
+      <c r="H29" s="14">
+        <v>0.27436490000000002</v>
+      </c>
+      <c r="I29" s="14">
+        <v>0.60071850000000004</v>
+      </c>
+      <c r="L29" s="8">
+        <v>4.2120999999999999E-3</v>
+      </c>
+      <c r="M29" s="8">
+        <v>2.1777869999999999</v>
+      </c>
+      <c r="N29" s="8">
+        <v>4.3121352000000002</v>
+      </c>
+      <c r="O29" s="8">
+        <v>1.40106E-2</v>
+      </c>
+      <c r="P29" s="8">
+        <v>2.5338126999999999</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>0.1121921</v>
+      </c>
+      <c r="R29" s="8">
+        <v>2.9164376000000001</v>
+      </c>
+      <c r="S29" s="8">
+        <v>8.84273E-2</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="9"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="L30" s="8">
+        <v>7.5120999999999999E-3</v>
+      </c>
+      <c r="M30" s="8">
+        <v>3.7910211999999999</v>
+      </c>
+      <c r="N30" s="8">
+        <v>6.2412713000000002</v>
+      </c>
+      <c r="O30" s="8">
+        <v>2.1351E-3</v>
+      </c>
+      <c r="P30" s="8">
+        <v>2.6883324000000002</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>0.1018433</v>
+      </c>
+      <c r="R30" s="8">
+        <v>4.7358941999999997</v>
+      </c>
+      <c r="S30" s="8">
+        <v>3.01015E-2</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="12"/>
+      <c r="B31" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="1:21" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="13">
+        <v>3.3000999999999998E-3</v>
+      </c>
+      <c r="C32" s="13">
+        <v>1.6132342</v>
+      </c>
+      <c r="D32" s="13">
+        <v>2.9302752999999999</v>
+      </c>
+      <c r="E32" s="13">
+        <v>5.4487800000000003E-2</v>
+      </c>
+      <c r="F32" s="13">
+        <v>2.4169236000000001</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0.1207927</v>
+      </c>
+      <c r="H32" s="13">
+        <v>1.0805785999999999</v>
+      </c>
+      <c r="I32" s="13">
+        <v>0.29917189999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="13">
+        <v>4.2120999999999999E-3</v>
+      </c>
+      <c r="C33" s="13">
+        <v>2.1777869999999999</v>
+      </c>
+      <c r="D33" s="13">
+        <v>4.3121352000000002</v>
+      </c>
+      <c r="E33" s="20">
+        <v>1.40106E-2</v>
+      </c>
+      <c r="F33" s="13">
+        <v>2.5338126999999999</v>
+      </c>
+      <c r="G33" s="13">
+        <v>0.1121921</v>
+      </c>
+      <c r="H33" s="13">
+        <v>2.9164376000000001</v>
+      </c>
+      <c r="I33" s="13">
+        <v>8.84273E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="14">
+        <v>7.5120999999999999E-3</v>
+      </c>
+      <c r="C34" s="14">
+        <v>3.7910211999999999</v>
+      </c>
+      <c r="D34" s="14">
+        <v>6.2412713000000002</v>
+      </c>
+      <c r="E34" s="21">
+        <v>2.1351E-3</v>
+      </c>
+      <c r="F34" s="14">
+        <v>2.6883324000000002</v>
+      </c>
+      <c r="G34" s="14">
+        <v>0.1018433</v>
+      </c>
+      <c r="H34" s="14">
+        <v>4.7358941999999997</v>
+      </c>
+      <c r="I34" s="21">
+        <v>3.01015E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18.45" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" spans="1:9" ht="18.45" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B31:I31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="O2:O10">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S10">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O22:O30">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S22:S30">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B76DA8-EA45-4648-B691-E1130B7CA0B4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AA7DB8-D62F-4C6A-BC5D-A3782373BF21}">
+  <dimension ref="B2:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="9" width="10.8984375" customWidth="1"/>
+    <col min="10" max="10" width="31.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B3" s="2">
+        <v>1.4047E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.3918747</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.7131715999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.1809307</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.8971211</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.34383079999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2.5295356</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.1121139</v>
+      </c>
+      <c r="J3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B4" s="2">
+        <v>7.3329999999999999E-4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.9205553</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4.4221678000000004</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.22928E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.16386809999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.68572440000000001</v>
+      </c>
+      <c r="H4" s="2">
+        <v>8.6892209999999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3.2907000000000001E-3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B5" s="2">
+        <v>2.1378999999999999E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.31243</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9.6694324999999992</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7.0599999999999995E-5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.47799009999999997</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.48952770000000001</v>
+      </c>
+      <c r="H5" s="2">
+        <v>18.8727445</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.5699999999999999E-5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B6" s="2">
+        <v>-2.0570000000000001E-4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.65553430000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.2266032</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.79733639999999995</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8.6227000000000005E-3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.92606120000000003</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.44565339999999998</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.50477919999999998</v>
+      </c>
+      <c r="J6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B7" s="2">
+        <v>-2.4502E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.1917589</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.45217309999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.6365594</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.8713265</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.35113509999999998</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3.3029999999999997E-2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.85587460000000004</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="2">
+        <v>-2.6557999999999998E-3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.8472930999999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.43372699999999997</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.64838470000000004</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.3528926</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.55280629999999997</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.51536890000000002</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.47322979999999998</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B9" s="2">
+        <v>3.3471E-3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.6174229</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.9532734</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.99224E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2.8721407000000001</v>
+      </c>
+      <c r="G9" s="2">
+        <v>9.0878700000000007E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5.0117425999999998</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2.57066E-2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B10" s="2">
+        <v>4.2331000000000001E-3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.1742889000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6.9705664000000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.0536E-3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2.8666908000000002</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9.1184699999999994E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>11.0247324</v>
+      </c>
+      <c r="I10" s="2">
+        <v>9.787000000000001E-4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B11" s="2">
+        <v>7.5801999999999996E-3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3.7917117999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12.144167899999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>7.5000000000000002E-6</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3.1450583000000001</v>
+      </c>
+      <c r="G11" s="2">
+        <v>7.6894100000000007E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>21.034292499999999</v>
+      </c>
+      <c r="I11" s="2">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="E3:E11">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G11">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I11">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>